--- a/Documents/ric-register (1).xlsx
+++ b/Documents/ric-register (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frase\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UniStuff(3rdYear)\Group Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4952D0-DC3A-4AA1-A13C-2C302D67F7D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D138A238-311B-4FF0-8C5C-DF0888EBB3B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RICs" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Very Low</t>
   </si>
   <si>
-    <t>Jamie Kearney</t>
-  </si>
-  <si>
     <t>Data Loss</t>
   </si>
   <si>
@@ -106,6 +103,24 @@
   </si>
   <si>
     <t>Make sure that all team members are working equally and efficiently and make sure to consider and keep record of any and all complaints by any member. If a member is dismissed then change around the planned strategy to adapt to their loss.</t>
+  </si>
+  <si>
+    <t>Fraser Yuill</t>
+  </si>
+  <si>
+    <t>Member contracting the Corona Virus</t>
+  </si>
+  <si>
+    <t>Tell member to stay at home and do any work that they can without pushing them too much.</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Analysis of effectiveness of PDTs changed to talking to other students and will be conducted in March.</t>
+  </si>
+  <si>
+    <t>Change approach and adapt to new time date, gives us a better idea of what students think of the PDT system.</t>
   </si>
 </sst>
 </file>
@@ -510,7 +525,7 @@
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I10:I11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
@@ -584,10 +599,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J2" s="8"/>
     </row>
@@ -596,7 +611,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>10</v>
@@ -608,17 +623,17 @@
         <v>300</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="9">
         <f t="shared" ref="G3:G66" si="0">IF(C3="","",IF(C3="Risk",IF(F3="Very High",80%,IF(F3="High",65%,IF(F3="Medium",50%,IF(F3="Low",30%,IF(F3="Very Low",10%,NA())))))*E3,E3))</f>
         <v>90</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J3" s="8"/>
     </row>
@@ -627,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
@@ -639,17 +654,17 @@
         <v>300</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
@@ -657,7 +672,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>10</v>
@@ -676,10 +691,10 @@
         <v>40</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -687,7 +702,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
@@ -699,32 +714,75 @@
         <v>400</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D7" s="8"/>
-      <c r="G7" s="9" t="str">
+    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8">
+        <v>43906</v>
+      </c>
+      <c r="E7" s="7">
+        <v>400</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="9">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D8" s="8"/>
-      <c r="G8" s="9" t="str">
+        <v>120</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="8">
+        <v>43865</v>
+      </c>
+      <c r="E8" s="7">
+        <v>50</v>
+      </c>
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
-        <v/>
+        <v>50</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
